--- a/src/main/resources/test_excel.xlsx
+++ b/src/main/resources/test_excel.xlsx
@@ -1,55 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yupi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspacce\java\project_study\wbi\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF756E6F-D024-F543-BF1B-5BFCE872F8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343ABF27-946D-43FC-AC22-880350B9D75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="2660" windowWidth="28060" windowHeight="16940" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>小数</t>
-  </si>
-  <si>
     <t>日期</t>
   </si>
   <si>
-    <t>aa</t>
+    <t>用户数</t>
   </si>
   <si>
-    <t>整数</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
   </si>
   <si>
-    <t>字符串</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -57,40 +87,49 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Microsoft YaHei"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,15 +154,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -186,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -219,26 +261,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -271,23 +296,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -430,57 +438,64 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8"/>
   <cols>
-    <col min="4" max="4" width="10.77734375" style="5"/>
+    <col min="4" max="4" width="10.75" style="1"/>
+    <col min="5" max="5" width="10.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>110</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B3" s="3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
+      <c r="B4" s="3">
+        <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="D2" s="4">
-        <v>44844</v>
-      </c>
+    <row r="9" spans="1:5">
+      <c r="E9" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>